--- a/ТестКейс VK.xlsx
+++ b/ТестКейс VK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Desktop/Домашняя работа/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/GitHub/FirstProgect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAA305E-8C52-D04D-989B-BB7FE051E6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90F673-BA13-8245-B3C2-FF92C4C2DE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>passed</t>
   </si>
@@ -2138,7 +2138,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2183,7 +2183,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="8">
         <f>COUNTIF(L$8:L$58,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="8">
@@ -2228,7 +2228,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="10">
         <f>COUNTIF(L$8:L$58,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="10">
@@ -2453,7 +2453,9 @@
       <c r="I8" s="19"/>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="21"/>
       <c r="O8" s="7"/>
@@ -2489,7 +2491,9 @@
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="21"/>
       <c r="O9" s="7"/>
@@ -2525,7 +2529,9 @@
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="21"/>
       <c r="O10" s="7"/>
@@ -2561,7 +2567,9 @@
       <c r="I11" s="19"/>
       <c r="J11" s="18"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="21"/>
       <c r="O11" s="7"/>
@@ -2597,7 +2605,9 @@
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="21"/>
       <c r="O12" s="7"/>
